--- a/tangodjsforgoodsound/static/tdjsfgs_testing_163.xlsx
+++ b/tangodjsforgoodsound/static/tdjsfgs_testing_163.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albi/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA2F84-235C-9F4C-A915-898F1DA62C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23900" windowHeight="21440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>RM</author>
   </authors>
   <commentList>
-    <comment ref="B60" authorId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +46,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="DejaVu Sans"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,132 +63,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
-  <si>
-    <t xml:space="preserve">Nr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testliste TDJSFGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">René</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nummern der Tests nicht mehr ändern !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST dd.mm.yy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROD dd.mm.yy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seite passt sich der Bildschirmgrösse an (..1280, 1281..1600, 1601..) v. a. 3 Bilder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1920x1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu: alle 7 Sites vorhanden &amp; Reihenfolge korrekt für ein- und ausgeloggt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Liste: DJs können angeklickt werden → Detailansicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Liste: Anzeige Anzahl DJs muss korrekt sein (Vergleich mit db.sqlite3, N Milongas &gt; 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Liste und Player+DAC: DJ nicht sichtbar wenn Anzahl Milongas = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Liste: Suche funktioniert für DJ, Country und Style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Liste: Update funktioniert - Änderung - Jahrzahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player+DAC: Tabelle ist vollständig, Anzahl User korrekt (zählen mit db.sqlite3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Detail: Emailadresse wird in Mailclient übernommen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Detail: Alle Felder mit Inhalt in Edit werden auf Detail angezeigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project: Seite wird angezeigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright: Seite wird angezeigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright: Links in Copyright werden angezeigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knowledge: Seite wird angezeigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knowledge: alle Links können in einem neuen Tab geöffnet werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More: wird nur angezeigt falls Login alberto oder rene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login: Man kann sich nicht mit falschem Passwort einloggen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login: Man kann sich nicht mit falschem Usernamen einloggen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logout: DJ Eintrag verschwindet im Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logout: Neues Login erforderlich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session: automatisches Logout wenn Browser geschlossen wird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passwort reset: Man erhält ein Passwort Reset Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVEL nur http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passwort reset: Neues Passwort zu kurz → Fehlermeldung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passwort reset: Neue zwei Passwörter nicht identisch → Fehlermeldung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passwort reset: Login mit neuem Passowort ok → Detailansicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passwort reset: Ungültige Login Email Adresse → Fehlermeldung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passwort reset: kann abgebrochen werden (Button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login: wenn Login korrekt → Detailansicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact: Orchester muss korrekt sein → sonst Fehlermeldung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact: Message darf nicht leer sein.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Testliste TDJSFGS</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>René</t>
+  </si>
+  <si>
+    <t>Albi</t>
+  </si>
+  <si>
+    <t>Nummern der Tests nicht mehr ändern !</t>
+  </si>
+  <si>
+    <t>TEST dd.mm.yy</t>
+  </si>
+  <si>
+    <t>PROD dd.mm.yy</t>
+  </si>
+  <si>
+    <t>DEVEL</t>
+  </si>
+  <si>
+    <t>Seite passt sich der Bildschirmgrösse an (..1280, 1281..1600, 1601..) v. a. 3 Bilder</t>
+  </si>
+  <si>
+    <t>1920x1200</t>
+  </si>
+  <si>
+    <t>Menu: alle 7 Sites vorhanden &amp; Reihenfolge korrekt für ein- und ausgeloggt</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>DJ Liste: DJs können angeklickt werden → Detailansicht</t>
+  </si>
+  <si>
+    <t>DJ Liste: Anzeige Anzahl DJs muss korrekt sein (Vergleich mit db.sqlite3, N Milongas &gt; 0)</t>
+  </si>
+  <si>
+    <t>DJ Liste und Player+DAC: DJ nicht sichtbar wenn Anzahl Milongas = 0</t>
+  </si>
+  <si>
+    <t>DJ Liste: Suche funktioniert für DJ, Country und Style</t>
+  </si>
+  <si>
+    <t>DJ Liste: Update funktioniert - Änderung - Jahrzahl</t>
+  </si>
+  <si>
+    <t>Player+DAC: Tabelle ist vollständig, Anzahl User korrekt (zählen mit db.sqlite3)</t>
+  </si>
+  <si>
+    <t>DJ Detail: Emailadresse wird in Mailclient übernommen</t>
+  </si>
+  <si>
+    <t>DJ Detail: Alle Felder mit Inhalt in Edit werden auf Detail angezeigt</t>
+  </si>
+  <si>
+    <t>Project: Seite wird angezeigt</t>
+  </si>
+  <si>
+    <t>Copyright: Seite wird angezeigt</t>
+  </si>
+  <si>
+    <t>Copyright: Links in Copyright werden angezeigt</t>
+  </si>
+  <si>
+    <t>Knowledge: Seite wird angezeigt</t>
+  </si>
+  <si>
+    <t>Knowledge: alle Links können in einem neuen Tab geöffnet werden</t>
+  </si>
+  <si>
+    <t>More: wird nur angezeigt falls Login alberto oder rene</t>
+  </si>
+  <si>
+    <t>Login: Man kann sich nicht mit falschem Passwort einloggen</t>
+  </si>
+  <si>
+    <t>Login: Man kann sich nicht mit falschem Usernamen einloggen</t>
+  </si>
+  <si>
+    <t>Logout: DJ Eintrag verschwindet im Menu</t>
+  </si>
+  <si>
+    <t>Logout: Neues Login erforderlich</t>
+  </si>
+  <si>
+    <t>Session: automatisches Logout wenn Browser geschlossen wird</t>
+  </si>
+  <si>
+    <t>Passwort reset: Man erhält ein Passwort Reset Email</t>
+  </si>
+  <si>
+    <t>DEVEL nur http</t>
+  </si>
+  <si>
+    <t>Passwort reset: Neues Passwort zu kurz → Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Passwort reset: Neue zwei Passwörter nicht identisch → Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Passwort reset: Login mit neuem Passowort ok → Detailansicht</t>
+  </si>
+  <si>
+    <t>Passwort reset: Ungültige Login Email Adresse → Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Passwort reset: kann abgebrochen werden (Button)</t>
+  </si>
+  <si>
+    <t>Login: wenn Login korrekt → Detailansicht</t>
+  </si>
+  <si>
+    <t>Contact: Orchester muss korrekt sein → sonst Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Contact: Message darf nicht leer sein.</t>
   </si>
   <si>
     <r>
@@ -195,18 +199,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Contact: Email adress must have a valid pattern (</t>
+      <t>Contact: Email adress must have a valid pattern (</t>
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a@b.c</t>
+      <t>a@b.c</t>
     </r>
     <r>
       <rPr>
@@ -216,20 +220,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) not: a a@ a@b a@b. a#@b.c</t>
+      <t>) not: a a@ a@b a@b. a#@b.c</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Contact: Es geht ein Email an contact@tangodjsforgoodsound.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVEL an rm@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Email: enthält „Known User with this email address“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Email: enthält keinen "User" bei neuem Kontakt</t>
+    <t>Contact: Es geht ein Email an contact@tangodjsforgoodsound.info</t>
+  </si>
+  <si>
+    <t>DEVEL an rm@</t>
+  </si>
+  <si>
+    <t>Contact Email: enthält „Known User with this email address“</t>
+  </si>
+  <si>
+    <t>Contact Email: enthält keinen "User" bei neuem Kontakt</t>
   </si>
   <si>
     <r>
@@ -240,18 +244,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Register: Email adress must have a valid pattern (</t>
+      <t>Register: Email adress must have a valid pattern (</t>
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a@b.c)</t>
+      <t>a@b.c)</t>
     </r>
     <r>
       <rPr>
@@ -265,115 +269,112 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Register: Scroll to end of page on wrong inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register: Passwords must be identical and strong (Fehler gelb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register: Existing Emails are not allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register: New user can login after Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register: New user must press edit for edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register: Num Milongas are 0 at first login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register: DJ can edit and save the entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Es können alle Felder verändert werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Remark Einträge sind auf 299 Zeichen beschränkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Public Email Adresse kann leer sein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Change password: Neues Passwort zu kurz → Fehler gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Change password: Neue zwei Passwörter nicht identisch → Fehler gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Change password: Abort funktioniert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Login Adr.: Bestehende Login Email werden erkannt → Fehler gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Login Adr.: Bestehende Public Email werden erkannt → Fehler gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Login Adr.: Änderung Login Emailadresse wird übernommen in DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vergessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Public Email: Bestehende Public Email werden erkannt → Fehler gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Public Email: Bestehende Login Email werden erkannt → Fehler gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Equalizer kann nicht leer sein, falls Eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Compressor kann nicht leer sein, falls Comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Equalizer kann leer sein, falls Eq=Never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Compressor kann leer sein, falls Comp = Never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Alle 4 Varianten für Resident DJ sind korrekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Bindestrich nicht erlaubt in Pflichtfeldern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Alle fehlerhaften Pflichtfelder sind gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: DJ Eintrag ändern und testen ob sich Last change ändert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Info Button aktiv und zeigen richtigen Text an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: Das Löschen des Users kann abgebrochen werden (Button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit: User kann gelöscht werden (löscht User und DJ in DB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email to contact@… when a DJ is registered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome Email to DJ when a DJ is registered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email to contact@tangodjsforgoodsound.info when a DJ is deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons Edit und Logout nur mit Login sichtbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons Edit und Logout nach Login nur auf eigenem Account sichtbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testen ob das Logfile geschrieben wird (ist auf Server)</t>
+    <t>Register: Scroll to end of page on wrong inputs</t>
+  </si>
+  <si>
+    <t>Register: Passwords must be identical and strong (Fehler gelb)</t>
+  </si>
+  <si>
+    <t>Register: Existing Emails are not allowed</t>
+  </si>
+  <si>
+    <t>Register: New user can login after Register</t>
+  </si>
+  <si>
+    <t>Register: New user must press edit for edit</t>
+  </si>
+  <si>
+    <t>Register: Num Milongas are 0 at first login</t>
+  </si>
+  <si>
+    <t>Register: DJ can edit and save the entries</t>
+  </si>
+  <si>
+    <t>Edit: Es können alle Felder verändert werden</t>
+  </si>
+  <si>
+    <t>Edit: Remark Einträge sind auf 299 Zeichen beschränkt</t>
+  </si>
+  <si>
+    <t>Edit: Public Email Adresse kann leer sein</t>
+  </si>
+  <si>
+    <t>Edit Change password: Neues Passwort zu kurz → Fehler gelb</t>
+  </si>
+  <si>
+    <t>Edit Change password: Neue zwei Passwörter nicht identisch → Fehler gelb</t>
+  </si>
+  <si>
+    <t>Edit Change password: Abort funktioniert</t>
+  </si>
+  <si>
+    <t>Edit Login Adr.: Bestehende Login Email werden erkannt → Fehler gelb</t>
+  </si>
+  <si>
+    <t>Edit Login Adr.: Bestehende Public Email werden erkannt → Fehler gelb</t>
+  </si>
+  <si>
+    <t>Edit Login Adr.: Änderung Login Emailadresse wird übernommen in DB</t>
+  </si>
+  <si>
+    <t>Edit Public Email: Bestehende Public Email werden erkannt → Fehler gelb</t>
+  </si>
+  <si>
+    <t>Edit Public Email: Bestehende Login Email werden erkannt → Fehler gelb</t>
+  </si>
+  <si>
+    <t>Edit: Equalizer kann nicht leer sein, falls Eq</t>
+  </si>
+  <si>
+    <t>Edit: Compressor kann nicht leer sein, falls Comp</t>
+  </si>
+  <si>
+    <t>Edit: Equalizer kann leer sein, falls Eq=Never</t>
+  </si>
+  <si>
+    <t>Edit: Compressor kann leer sein, falls Comp = Never</t>
+  </si>
+  <si>
+    <t>Edit: Alle 4 Varianten für Resident DJ sind korrekt</t>
+  </si>
+  <si>
+    <t>Edit: Bindestrich nicht erlaubt in Pflichtfeldern</t>
+  </si>
+  <si>
+    <t>Edit: Alle fehlerhaften Pflichtfelder sind gelb</t>
+  </si>
+  <si>
+    <t>Edit: DJ Eintrag ändern und testen ob sich Last change ändert</t>
+  </si>
+  <si>
+    <t>Edit: Info Button aktiv und zeigen richtigen Text an</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Edit: Das Löschen des Users kann abgebrochen werden (Button)</t>
+  </si>
+  <si>
+    <t>Edit: User kann gelöscht werden (löscht User und DJ in DB)</t>
+  </si>
+  <si>
+    <t>Email to contact@… when a DJ is registered</t>
+  </si>
+  <si>
+    <t>Welcome Email to DJ when a DJ is registered</t>
+  </si>
+  <si>
+    <t>Email to contact@tangodjsforgoodsound.info when a DJ is deleted</t>
+  </si>
+  <si>
+    <t>Buttons Edit und Logout nur mit Login sichtbar</t>
+  </si>
+  <si>
+    <t>Buttons Edit und Logout nach Login nur auf eigenem Account sichtbar</t>
+  </si>
+  <si>
+    <t>Testen ob das Logfile geschrieben wird (ist auf Server)</t>
   </si>
   <si>
     <r>
@@ -388,14 +389,14 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">~/m</t>
+      <t>~/m</t>
     </r>
     <r>
       <rPr>
@@ -405,17 +406,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">aintenancemode vorhanden</t>
+      <t>aintenancemode vorhanden</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">getestet durch  AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getestet durch RM</t>
+    <t>getestet durch  AA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>getestet durch RM</t>
   </si>
   <si>
     <t xml:space="preserve">Tested and ok, but the result is not really satisfactory   </t>
@@ -424,59 +425,40 @@
     <t xml:space="preserve">Test not passed   </t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernte Tests:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Change password: Ist erfolgreich (altes PW → Fehler gelb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ist erlaubt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knowledge: alle können geöffnet werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nr. 13 ausreichend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact: Email muss gültig sein → sonst Fehlermeldung gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nr. 53 ausreichend</t>
+    <t>Entfernte Tests:</t>
+  </si>
+  <si>
+    <t>Edit Change password: Ist erfolgreich (altes PW → Fehler gelb)</t>
+  </si>
+  <si>
+    <t>ist erlaubt</t>
+  </si>
+  <si>
+    <t>Knowledge: alle können geöffnet werden</t>
+  </si>
+  <si>
+    <t>Nr. 13 ausreichend</t>
+  </si>
+  <si>
+    <t>Contact: Email muss gültig sein → sonst Fehlermeldung gelb</t>
+  </si>
+  <si>
+    <t>Nr. 53 ausreichend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -514,7 +496,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -529,7 +511,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -537,7 +519,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -545,7 +527,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -553,7 +535,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -561,11 +543,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -607,275 +588,205 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -934,60 +845,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1019,7 +946,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1043,7 +970,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1103,48 +1030,47 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.00390625" defaultRowHeight="21" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="99.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="20.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="1" width="8"/>
+    <col min="1" max="1" width="6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="99.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="6.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="4" customWidth="1"/>
+    <col min="9" max="1022" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1079,7 @@
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" s="14" customFormat="true" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="66" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>5</v>
@@ -1171,8 +1097,8 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -1187,24 +1113,24 @@
       <c r="G3" s="20"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1213,14 +1139,14 @@
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+    <row r="6" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1229,14 +1155,14 @@
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -1245,14 +1171,14 @@
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+    <row r="8" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A8" s="15">
         <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -1261,30 +1187,30 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="15">
         <v>73</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="15">
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1293,14 +1219,14 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="15">
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1309,14 +1235,14 @@
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="15">
         <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1325,14 +1251,14 @@
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+    <row r="13" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="15">
         <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1341,14 +1267,14 @@
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="n">
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="15">
         <v>10</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1357,14 +1283,14 @@
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+    <row r="15" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="15">
         <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1373,14 +1299,14 @@
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="n">
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="15">
         <v>12</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1389,14 +1315,14 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="15">
         <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1405,14 +1331,14 @@
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -1421,14 +1347,14 @@
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -1437,14 +1363,14 @@
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -1453,14 +1379,14 @@
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -1469,14 +1395,14 @@
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
+    <row r="22" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -1485,14 +1411,14 @@
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="n">
+    <row r="23" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -1501,14 +1427,14 @@
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -1517,7 +1443,7 @@
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="20"/>
@@ -1525,8 +1451,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
+    <row r="25" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -1535,14 +1461,14 @@
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A26" s="15">
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -1551,14 +1477,14 @@
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="n">
+    <row r="27" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -1567,14 +1493,14 @@
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -1583,14 +1509,14 @@
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -1599,14 +1525,14 @@
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="n">
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A30" s="15">
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -1615,71 +1541,71 @@
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="n">
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A31" s="15">
         <v>51</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="n">
+    <row r="32" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A32" s="15">
         <v>52</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="25"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="n">
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A33" s="26">
         <v>53</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="17"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="n">
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A34" s="15">
         <v>55</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="25"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="20"/>
@@ -1687,17 +1613,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="n">
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A35" s="15">
         <v>56</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="20"/>
@@ -1705,17 +1631,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A36" s="15">
         <v>57</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="20"/>
@@ -1723,760 +1649,765 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A37" s="15">
         <v>58</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="n">
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A38" s="15">
         <v>59</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="25"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-    </row>
-    <row r="39" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="n">
+      <c r="F38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A39" s="15">
         <v>60</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="17"/>
-      <c r="D39" s="25"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="n">
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A40" s="15">
         <v>61</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="25"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="n">
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A41" s="15">
         <v>62</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="17"/>
-      <c r="D41" s="25"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="n">
+    <row r="42" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A42" s="15">
         <v>63</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="25"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="n">
+    <row r="43" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A43" s="15">
         <v>64</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="25"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+    <row r="44" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A44" s="15">
         <v>65</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="25"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="n">
+    <row r="45" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A45" s="26">
         <v>28</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="n">
+    <row r="46" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A46" s="15">
         <v>30</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="25"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="n">
+    <row r="47" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A47" s="15">
         <v>31</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="17"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="n">
+    <row r="48" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A48" s="15">
         <v>32</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="17"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="n">
+    <row r="49" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A49" s="15">
         <v>33</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="17"/>
-      <c r="D49" s="25"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="n">
+    <row r="50" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A50" s="15">
         <v>35</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="17"/>
-      <c r="D50" s="25"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="n">
+    <row r="51" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A51" s="15">
         <v>36</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="25"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="18"/>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+    <row r="52" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A52" s="15">
         <v>37</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="17"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="18"/>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="21"/>
     </row>
-    <row r="53" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+    <row r="53" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A53" s="15">
         <v>29</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="17"/>
-      <c r="D53" s="25"/>
+      <c r="D53" s="52">
+        <v>45945</v>
+      </c>
       <c r="E53" s="18"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21" t="s">
+      <c r="F53" s="29"/>
+      <c r="G53" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A54" s="15">
+        <v>38</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="n">
-        <v>38</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="C54" s="17"/>
-      <c r="D54" s="25"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="21"/>
     </row>
-    <row r="55" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="n">
+    <row r="55" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A55" s="15">
         <v>39</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="25"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="21"/>
     </row>
-    <row r="56" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="n">
+    <row r="56" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A56" s="15">
         <v>40</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="17"/>
-      <c r="D56" s="25"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
     </row>
-    <row r="57" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="n">
+    <row r="57" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A57" s="15">
         <v>41</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="25"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="21"/>
     </row>
-    <row r="58" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="n">
+    <row r="58" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A58" s="15">
         <v>42</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="17"/>
-      <c r="D58" s="25"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="21"/>
     </row>
-    <row r="59" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="n">
+    <row r="59" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A59" s="15">
         <v>43</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="17"/>
-      <c r="D59" s="25"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="18"/>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="21"/>
     </row>
-    <row r="60" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+    <row r="60" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A60" s="15">
         <v>44</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="17"/>
-      <c r="D60" s="25"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="18"/>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+    <row r="61" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A61" s="15">
         <v>45</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="17"/>
-      <c r="D61" s="25"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="18"/>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="n">
+    <row r="62" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A62" s="15">
         <v>46</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="17"/>
-      <c r="D62" s="25"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="21"/>
     </row>
-    <row r="63" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="n">
+    <row r="63" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A63" s="15">
         <v>47</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="17"/>
-      <c r="D63" s="25"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="18"/>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="21"/>
     </row>
-    <row r="64" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="n">
+    <row r="64" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A64" s="15">
         <v>48</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="52">
+        <v>45945</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="31" t="s">
+      <c r="G64" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A65" s="15">
+        <v>49</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="n">
-        <v>49</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="C65" s="17"/>
-      <c r="D65" s="25"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="18"/>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="21"/>
     </row>
-    <row r="66" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="n">
+    <row r="66" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A66" s="15">
         <v>50</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="17"/>
-      <c r="D66" s="25"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="18"/>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="21"/>
     </row>
-    <row r="67" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="n">
+    <row r="67" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A67" s="15">
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="17"/>
-      <c r="D67" s="25"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="24" t="s">
+      <c r="F67" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="21"/>
     </row>
-    <row r="68" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="n">
+    <row r="68" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A68" s="15">
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="17"/>
-      <c r="D68" s="25"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="18"/>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="21"/>
     </row>
-    <row r="69" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="n">
+    <row r="69" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A69" s="15">
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="17"/>
-      <c r="D69" s="25"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="18"/>
-      <c r="F69" s="24" t="s">
+      <c r="F69" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="21"/>
     </row>
-    <row r="70" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="n">
+    <row r="70" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A70" s="15">
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="17"/>
-      <c r="D70" s="25"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="18"/>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="21"/>
     </row>
-    <row r="71" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15" t="n">
+    <row r="71" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A71" s="15">
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="17"/>
-      <c r="D71" s="25"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="21"/>
     </row>
-    <row r="72" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15" t="n">
+    <row r="72" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A72" s="15">
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="17"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="24" t="s">
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="21"/>
     </row>
-    <row r="73" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="n">
+    <row r="73" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A73" s="15">
         <v>80</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="21"/>
     </row>
-    <row r="74" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
       <c r="A74" s="15"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="30"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="20"/>
       <c r="H74" s="21"/>
     </row>
-    <row r="75" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="34"/>
-      <c r="B75" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="30"/>
+    <row r="75" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A75" s="32"/>
+      <c r="B75" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="29"/>
       <c r="G75" s="20"/>
       <c r="H75" s="21"/>
     </row>
-    <row r="76" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="34"/>
-      <c r="B76" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="30"/>
+    <row r="76" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A76" s="32"/>
+      <c r="B76" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="33"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="29"/>
       <c r="G76" s="20"/>
       <c r="H76" s="21"/>
     </row>
-    <row r="77" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="33" t="s">
+    <row r="77" spans="1:1024" ht="24.75" customHeight="1">
+      <c r="B77" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="35"/>
+      <c r="G77" s="36"/>
+    </row>
+    <row r="78" spans="1:1024" ht="24.75" customHeight="1">
+      <c r="A78" s="15"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="1:1024" s="42" customFormat="1" ht="42.75" customHeight="1">
+      <c r="B79" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="G77" s="38"/>
-    </row>
-    <row r="78" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="43"/>
-    </row>
-    <row r="79" s="44" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="45" t="s">
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="45"/>
+      <c r="AMI79" s="46"/>
+      <c r="AMJ79" s="46"/>
+    </row>
+    <row r="80" spans="1:1024" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A80" s="26">
+        <v>34</v>
+      </c>
+      <c r="B80" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="47"/>
-      <c r="AMI79" s="48"/>
-      <c r="AMJ79" s="48"/>
-    </row>
-    <row r="80" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="27" t="n">
-        <v>34</v>
-      </c>
-      <c r="B80" s="49" t="s">
+      <c r="C80" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="29" t="s">
+    </row>
+    <row r="81" spans="1:8" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A81" s="15">
+        <v>14</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="81" s="22" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" s="30"/>
+      <c r="C81" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" s="29"/>
       <c r="G81" s="20"/>
       <c r="H81" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A82" s="26">
+        <v>54</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="27" t="n">
-        <v>54</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F82" s="30"/>
+      <c r="C82" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="29"/>
       <c r="G82" s="20"/>
       <c r="H82" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="84" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="85" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="86" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="87" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="88" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="89" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="90" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="91" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="92" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="93" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="94" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="95" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="96" spans="1:8" ht="24.75" customHeight="1"/>
+    <row r="97" ht="24.75" customHeight="1"/>
+    <row r="98" ht="24.75" customHeight="1"/>
+    <row r="99" ht="24.75" customHeight="1"/>
+    <row r="100" ht="24.75" customHeight="1"/>
+    <row r="101" ht="24.75" customHeight="1"/>
+    <row r="102" ht="24.75" customHeight="1"/>
+    <row r="103" ht="24.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.39375" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="70" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;LTANGO DJS FOR GOOD SOUND</oddHeader>
     <oddFooter>&amp;L&amp;"Helvetica Neue,Regular"&amp;12 000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>